--- a/results.xlsx
+++ b/results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledi\Documents\GitHub\Awesome-state-Aiyagari\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE63A58-5570-41B6-94AD-7009EE553CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>PRICES</t>
+  </si>
+  <si>
+    <t>QUANTITIES</t>
+  </si>
+  <si>
+    <t>INEQUALITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resid walras law </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K/L        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensions/Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini consumption    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini income         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini wealth         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share wealth top 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share wealth top 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share wealth top 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K/Y        </t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Correl Shocks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +102,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +422,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.4590999999999998E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.4854000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-0.25001699999999999</v>
+      </c>
+      <c r="C4">
+        <v>-0.25002600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.1881E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.1879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.7274369999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.727449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12.827712</v>
+      </c>
+      <c r="C9">
+        <v>12.827916999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.91205700000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.91205499999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14.064591</v>
+      </c>
+      <c r="C11">
+        <v>14.064854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4.8851319999999996</v>
+      </c>
+      <c r="C12">
+        <v>4.885186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.5207E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.5205999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.44608500000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.44608399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.51716300000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.51716399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.680732</v>
+      </c>
+      <c r="C17">
+        <v>0.68072699999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>70.689608000000007</v>
+      </c>
+      <c r="C18">
+        <v>70.688874999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>24.506074000000002</v>
+      </c>
+      <c r="C19">
+        <v>24.505738000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>5.1738650000000002</v>
+      </c>
+      <c r="C20">
+        <v>5.1737880000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledi\Documents\GitHub\Awesome-state-Aiyagari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE63A58-5570-41B6-94AD-7009EE553CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95265E11-A9FF-4308-9EB1-8EF25396A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>ACCURACY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PRICES</t>
   </si>
@@ -39,12 +36,6 @@
     <t>INEQUALITY</t>
   </si>
   <si>
-    <t xml:space="preserve">GE error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resid walras law </t>
-  </si>
-  <si>
     <t xml:space="preserve">r   </t>
   </si>
   <si>
@@ -82,12 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">K/Y        </t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Correl Shocks</t>
   </si>
 </sst>
 </file>
@@ -137,12 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,29 +406,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3.1857999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.1857000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,26 +438,26 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.4590999999999998E-2</v>
+        <v>1.72776</v>
       </c>
       <c r="C3">
-        <v>2.4854000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>1.727773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-0.25001699999999999</v>
-      </c>
-      <c r="C4">
-        <v>-0.25002600000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
+      <c r="B5">
+        <v>12.827235999999999</v>
+      </c>
+      <c r="C5">
+        <v>12.827439999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.1881E-2</v>
+        <v>0.91159699999999999</v>
       </c>
       <c r="C6">
-        <v>3.1879999999999999E-2</v>
+        <v>0.91159400000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,15 +476,21 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.7274369999999999</v>
+        <v>14.071177</v>
       </c>
       <c r="C7">
-        <v>1.727449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>14.071440000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4.8865040000000004</v>
+      </c>
+      <c r="C8">
+        <v>4.8865590000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -507,125 +498,81 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12.827712</v>
+        <v>9.5237000000000002E-2</v>
       </c>
       <c r="C9">
-        <v>12.827916999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.91205700000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.91205499999999995</v>
+        <v>9.5236000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>14.064591</v>
+        <v>0.44602399999999998</v>
       </c>
       <c r="C11">
-        <v>14.064854</v>
+        <v>0.446023</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>4.8851319999999996</v>
+        <v>0.51714000000000004</v>
       </c>
       <c r="C12">
-        <v>4.885186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+        <v>0.51714000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>9.5207E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.5205999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>0.68067800000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.68067200000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>70.684119999999993</v>
+      </c>
+      <c r="C14">
+        <v>70.683387999999994</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.44608500000000001</v>
+        <v>24.507027999999998</v>
       </c>
       <c r="C15">
-        <v>0.44608399999999998</v>
+        <v>24.506692999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.51716300000000004</v>
+        <v>5.1740490000000001</v>
       </c>
       <c r="C16">
-        <v>0.51716399999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0.680732</v>
-      </c>
-      <c r="C17">
-        <v>0.68072699999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>70.689608000000007</v>
-      </c>
-      <c r="C18">
-        <v>70.688874999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>24.506074000000002</v>
-      </c>
-      <c r="C19">
-        <v>24.505738000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>5.1738650000000002</v>
-      </c>
-      <c r="C20">
-        <v>5.1737880000000001</v>
+        <v>5.173972</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledi\Documents\GitHub\Awesome-state-Aiyagari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95265E11-A9FF-4308-9EB1-8EF25396A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D2EA1-AF15-41E4-8692-2E5D0A195C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>PRICES</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">K/Y        </t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Correlated shocks</t>
   </si>
 </sst>
 </file>
@@ -122,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,162 +424,170 @@
     <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3.1857999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <v>3.1857000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.1859999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1.72776</v>
-      </c>
-      <c r="C3">
-        <v>1.727773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4">
+        <v>1.7277370000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.7277370000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>12.827235999999999</v>
-      </c>
-      <c r="C5">
-        <v>12.827439999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.91159699999999999</v>
+        <v>12.826879999999999</v>
       </c>
       <c r="C6">
-        <v>0.91159400000000002</v>
+        <v>12.826879999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>14.071177</v>
+        <v>0.91160099999999999</v>
       </c>
       <c r="C7">
-        <v>14.071440000000001</v>
+        <v>0.91160099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.8865040000000004</v>
+        <v>14.070715999999999</v>
       </c>
       <c r="C8">
-        <v>4.8865590000000001</v>
+        <v>14.070715999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>4.8864080000000003</v>
+      </c>
+      <c r="C9">
+        <v>4.8864080000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>9.5237000000000002E-2</v>
-      </c>
-      <c r="C9">
-        <v>9.5236000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10">
+        <v>9.5238000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.44602399999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.446023</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.51714000000000004</v>
+        <v>0.44602599999999998</v>
       </c>
       <c r="C12">
-        <v>0.51714000000000004</v>
+        <v>0.44602599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.68067800000000001</v>
+        <v>0.51713900000000002</v>
       </c>
       <c r="C13">
-        <v>0.68067200000000005</v>
+        <v>0.51713900000000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>70.684119999999993</v>
+        <v>0.68068799999999996</v>
       </c>
       <c r="C14">
-        <v>70.683387999999994</v>
+        <v>0.68068799999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>24.507027999999998</v>
+        <v>70.685412999999997</v>
       </c>
       <c r="C15">
-        <v>24.506692999999999</v>
+        <v>70.685411999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>24.507615999999999</v>
+      </c>
+      <c r="C16">
+        <v>24.507615000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>5.1740490000000001</v>
-      </c>
-      <c r="C16">
-        <v>5.173972</v>
+      <c r="B17">
+        <v>5.1741840000000003</v>
+      </c>
+      <c r="C17">
+        <v>5.1741840000000003</v>
       </c>
     </row>
   </sheetData>
